--- a/회의/DB설계도 02.xlsx
+++ b/회의/DB설계도 02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xodud\OneDrive\바탕 화면\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C1ADBE-CD36-4C07-B180-93FD9CC2E787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55FAC0D4-AD1B-48F7-8BA0-164F952E4BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4245" yWindow="1050" windowWidth="22155" windowHeight="14235" xr2:uid="{04EBF530-57C0-4FDE-9D30-309770039560}"/>
   </bookViews>
@@ -1109,7 +1109,7 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
